--- a/app/vendors/PHPExcel/Tests/29advancedvaluebinder.xlsx
+++ b/app/vendors/PHPExcel/Tests/29advancedvaluebinder.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>String value:</t>
   </si>
@@ -33,26 +33,30 @@
   </si>
   <si>
     <t>Date/time value:</t>
+  </si>
+  <si>
+    <t>Leading zeroes:</t>
+  </si>
+  <si>
+    <t>0001234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <sz val="11"/>
       <u val="none"/>
       <color rgb="FF000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <sz val="10"/>
       <u val="none"/>
       <color rgb="FF000000"/>
@@ -75,20 +79,20 @@
   <borders count="1">
     <border outline="true"/>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="1" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="9" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="165" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="166" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -388,16 +392,16 @@
   <sheetPr codeName="Advanced value binder">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.38" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="10.00" customWidth="true"/>
+    <col min="1" max="1" width="17.375" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -428,7 +432,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -436,14 +440,22 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>30671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" fitToHeight="0" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
